--- a/hw3-review.xlsx
+++ b/hw3-review.xlsx
@@ -1,38 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\munaw\OneDrive - Habib University (1)\DS2\1. Homeworks\Homework03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qasim.pasta\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF2E1CC-BDE4-4D12-A82A-75B892DC472B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rubric" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Expectation</t>
   </si>
@@ -76,12 +64,6 @@
 (by course staff)</t>
   </si>
   <si>
-    <t>Style</t>
-  </si>
-  <si>
-    <t>Code is pleasantly formatted and readable, variable names are meaningful, functions are short and modular, lines are generally less than 80 characters long, code is meaningfully documented, nesting is not overly deep, whitespace is used in a consistent manner contributing to readability and good formatting. Functions are reused where applicable, leading to modular code.</t>
-  </si>
-  <si>
     <t>Score Key</t>
   </si>
   <si>
@@ -107,12 +89,33 @@
   </si>
   <si>
     <t>Total (100)</t>
+  </si>
+  <si>
+    <t>Code is pleasantly formatted and readable, lines are generally less than 80 characters long.whitespace is used in a consistent manner contributing to readability and good formatting.</t>
+  </si>
+  <si>
+    <t>Code is meaningfully documented, commented to explain its purpose, especially for complex algorithms or functions. void over-commenting, as too many comments can make the code difficult to read</t>
+  </si>
+  <si>
+    <t>Variables, functions, classes, and modules should have clear, concise, and descriptive names that accurately represent their purpose. Functions are reused where applicable, leading to modular code, functions are short and modular, nesting is not overly deep.</t>
+  </si>
+  <si>
+    <t>Code should have appropriate error handling to prevent crashes and improve user experience. Error messages should be clear and helpful, providing information on how to resolve the issue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Readability </t>
+  </si>
+  <si>
+    <t>Naming Conventions and Modularity</t>
+  </si>
+  <si>
+    <t>Error Handling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -676,7 +679,7 @@
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1036,24 +1039,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1069,7 +1072,7 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1079,19 +1082,19 @@
       <c r="E2" s="4"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="7">
         <v>20</v>
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -1103,7 +1106,7 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -1115,7 +1118,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
@@ -1125,12 +1128,12 @@
       <c r="E6" s="4"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>22</v>
       </c>
       <c r="C7" s="12">
         <v>15</v>
@@ -1139,7 +1142,7 @@
       <c r="E7" s="11"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -1151,7 +1154,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -1163,7 +1166,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
@@ -1173,72 +1176,108 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="93" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="9" t="s">
+    <row r="12" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="10">
+      <c r="C12" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="10">
         <f>SUMPRODUCT(C3:C11,D3:D11)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>0</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>0</v>
-      </c>
-      <c r="B16" s="7" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>1</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="27" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="B17" s="7" t="s">
+    <row r="22" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>1.05</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
-        <v>1.05</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11 D3:D5 D8:D9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D14 D3:D5 D8:D9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"0,1,1.05"</formula1>
     </dataValidation>
   </dataValidations>
